--- a/UserStory_v3.xlsx
+++ b/UserStory_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youyou-pc\Desktop\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572B40F5-94F6-420D-BA63-726387FFD968}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20222D29-3108-4198-980E-DC102C224048}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{13A1CAFE-1ECC-4528-A915-8DFD8584ADFC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>Priorité</t>
   </si>
@@ -43,16 +43,10 @@
 de manière à ce qu'ils apparaissent dans les documents générés par l'application.</t>
   </si>
   <si>
-    <t>En tant que médecin radiologue , je veux ajouter des techniciens.</t>
-  </si>
-  <si>
     <t>En tant que médecin radiologue , je veux etre capable de signaler le service d'entretient 
 au cas où il y a manque d'équipement où bien des problèmes techniques .</t>
   </si>
   <si>
-    <t>En tant que Administrateur , je veux ajouter les médecins préscripteurs</t>
-  </si>
-  <si>
     <t>En tant que Secrétaire , je veux assigner les rendez-vous aux patients.</t>
   </si>
   <si>
@@ -66,10 +60,6 @@
 je veux m'authetifier pour accéder à mon espace de travail.</t>
   </si>
   <si>
-    <t>En tant que Administrateur , je veux créer des comptes utilisateurs pour 
-pour l'équipe médicale .</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -81,12 +71,6 @@
 préscripteur et l'intégrer dans le dossier médical du patient.</t>
   </si>
   <si>
-    <t>En tant que administrateur , je veux ajouter des medecins radiologues</t>
-  </si>
-  <si>
-    <t>En tant que administrateur , je veux modifier des medecins radiologues</t>
-  </si>
-  <si>
     <t>#001</t>
   </si>
   <si>
@@ -124,9 +108,6 @@
     <t>En tant que secrétaire , je veux modifier le dossier médical d'un patient</t>
   </si>
   <si>
-    <t>En tant que administrateur , je veux rechercher des medecins radiologues</t>
-  </si>
-  <si>
     <t>En tant que Secrétaire , je veux rechercher les rendez-vous</t>
   </si>
   <si>
@@ -181,9 +162,6 @@
     <t>#025</t>
   </si>
   <si>
-    <t>En tant que Administrateur , je veux modifier les médecins préscripteurs</t>
-  </si>
-  <si>
     <t>#026</t>
   </si>
   <si>
@@ -193,9 +171,6 @@
     <t>#027</t>
   </si>
   <si>
-    <t>En tant que Administrateur , je veux rechercher les médecins préscripteurs</t>
-  </si>
-  <si>
     <t>En tant que comptable , je veux ajouter les dépenses des impots.</t>
   </si>
   <si>
@@ -224,15 +199,6 @@
   </si>
   <si>
     <t>#029</t>
-  </si>
-  <si>
-    <t>#030</t>
-  </si>
-  <si>
-    <t>#031</t>
-  </si>
-  <si>
-    <t>#032</t>
   </si>
   <si>
     <t xml:space="preserve">En tant que Administrateur , je veux modifier les informations sur les salles .
@@ -242,63 +208,36 @@
     <t>complet</t>
   </si>
   <si>
-    <t>incomplet</t>
-  </si>
-  <si>
-    <t>#033</t>
-  </si>
-  <si>
     <t>En tant que Secrétaire , je veux etre capable d'ajouter le cahier d'observation 
 au dossier médical du patient .</t>
   </si>
   <si>
-    <t>#034</t>
-  </si>
-  <si>
-    <t>#035</t>
-  </si>
-  <si>
-    <t>#036</t>
-  </si>
-  <si>
-    <t>En tant que Administrateur , je veux Ajouter Un comptable</t>
-  </si>
-  <si>
-    <t>En tant que Administrateur , je veux Modifier Un comptable</t>
-  </si>
-  <si>
-    <t>En tant que Administrateur , je veux supprimer Un comptable</t>
-  </si>
-  <si>
-    <t>#037</t>
-  </si>
-  <si>
-    <t>#038</t>
-  </si>
-  <si>
-    <t>En tant que Administrateur , je veux modifier un technicien</t>
-  </si>
-  <si>
-    <t>En tant que Administrateur , je veux supprimer technicien</t>
-  </si>
-  <si>
-    <t>#039</t>
-  </si>
-  <si>
     <t>En tant que comptable , je veux supprimer les revenues.</t>
   </si>
   <si>
     <t>En tant que Administrateur , je veux ajouter les équipements radiologiques .</t>
   </si>
   <si>
-    <t>?</t>
+    <t>En tant que Administrateur , je veux modifier les employés</t>
+  </si>
+  <si>
+    <t>En tant que Administrateur , je veux supprimer les employés</t>
+  </si>
+  <si>
+    <t>#030</t>
+  </si>
+  <si>
+    <t>En tant que Administrateur , je veux rechercher les employés.</t>
+  </si>
+  <si>
+    <t>En tant que Administrateur , je veux ajouter les employés.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,8 +301,37 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Averia"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,13 +346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,35 +397,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EBBBFE-01D0-4BF2-8736-AA6D7636AC5A}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,608 +800,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="6">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="12">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="12">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="17">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="6">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="17">
+        <v>3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="17">
+        <v>3</v>
+      </c>
+      <c r="E14" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="17">
+        <v>8</v>
+      </c>
+      <c r="E15" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+      <c r="E16" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="6">
+    </row>
+    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="E24" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="22">
+        <v>3</v>
+      </c>
+      <c r="E25" s="22">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="6">
+    </row>
+    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="22">
+        <v>8</v>
+      </c>
+      <c r="E26" s="22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="22">
         <v>3</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="E27" s="22">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="6">
+    </row>
+    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="22">
+        <v>8</v>
+      </c>
+      <c r="E28" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="22">
+        <v>3</v>
+      </c>
+      <c r="E29" s="22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="24">
+        <v>8</v>
+      </c>
+      <c r="E30" s="22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="6">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="6">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="E31" s="22">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="6">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="6">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="6">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="6">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="6">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="6">
-        <v>3</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="6">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="6">
-        <v>8</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="6">
-        <v>3</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="6">
-        <v>3</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="6">
-        <v>5</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="6">
-        <v>8</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="6">
-        <v>13</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="6">
-        <v>3</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="6">
-        <v>3</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>SUM(D2:D31)/4</f>
+        <v>37.5</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E31">
+    <sortCondition ref="E2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
